--- a/1_Result_Tables/4_ifoCAST_evaluations_matched_since_2021/ifoCAst_error_tables_filtered_latest_since_2021.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_matched_since_2021/ifoCAst_error_tables_filtered_latest_since_2021.xlsx
@@ -429,19 +429,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02127086441425037</v>
+        <v>-0.02498128220729426</v>
       </c>
       <c r="C2">
-        <v>0.4679462306600238</v>
+        <v>0.4654300422948336</v>
       </c>
       <c r="D2">
-        <v>0.4040689827309273</v>
+        <v>0.403900932749472</v>
       </c>
       <c r="E2">
-        <v>0.6356642059538411</v>
+        <v>0.6355320076514416</v>
       </c>
       <c r="F2">
-        <v>0.6537267640699818</v>
+        <v>0.6534516332611154</v>
       </c>
       <c r="G2">
         <v>18</v>
@@ -452,22 +452,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01241708095194293</v>
+        <v>-0.01304922696893488</v>
       </c>
       <c r="C3">
-        <v>0.5916969818396424</v>
+        <v>0.5592693588336196</v>
       </c>
       <c r="D3">
-        <v>0.5743008929391805</v>
+        <v>0.5422566057549446</v>
       </c>
       <c r="E3">
-        <v>0.7578264266566458</v>
+        <v>0.7363807478166065</v>
       </c>
       <c r="F3">
-        <v>0.7796922757509431</v>
+        <v>0.7564405001635656</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,22 +475,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2910819848714188</v>
+        <v>0.3044081735855184</v>
       </c>
       <c r="C4">
-        <v>0.5532346395264902</v>
+        <v>0.5519967918708635</v>
       </c>
       <c r="D4">
-        <v>0.5085495593033426</v>
+        <v>0.4951141439019667</v>
       </c>
       <c r="E4">
-        <v>0.7131266081863322</v>
+        <v>0.7036434778365864</v>
       </c>
       <c r="F4">
-        <v>0.6710511453855985</v>
+        <v>0.6527812235807698</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
